--- a/biology/Zoologie/Brachymeles_samarensis/Brachymeles_samarensis.xlsx
+++ b/biology/Zoologie/Brachymeles_samarensis/Brachymeles_samarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachymeles samarensis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachymeles samarensis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre dans les îles de Samar, de Leyte, de Tintiman, de Tilmubo, de Lapinig Chico, de Lapinig Grande et dans le Sud de Luçon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre dans les îles de Samar, de Leyte, de Tintiman, de Tilmubo, de Lapinig Chico, de Lapinig Grande et dans le Sud de Luçon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de samar et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île de Samar.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brown, 1956 : A revision of the genus Brachymeles (Scincidae), with descriptions of new species and subspecies. Breviora, vol. 54, p. 1-19 (texte intégral).</t>
         </is>
